--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_53_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_53_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.8903291599649403, 4.632658234570528]</t>
+          <t>[3.8839515539241014, 4.639035840611367]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -603,7 +603,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[2.283079345852042, 2.484342538874813]</t>
+          <t>[2.2956582954159654, 2.4717635893108896]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -617,23 +617,23 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3690293153402182, 0.755257535462496]</t>
+          <t>[0.36904316200211307, 0.7552436888006011]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>4.986401165307797e-07</v>
+        <v>4.979253158676755e-07</v>
       </c>
       <c r="V2" t="n">
-        <v>4.986401165307797e-07</v>
+        <v>4.979253158676755e-07</v>
       </c>
       <c r="W2" t="n">
         <v>15.75135135135187</v>
       </c>
       <c r="X2" t="n">
-        <v>15.34486486486537</v>
+        <v>15.39567567567618</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.15783783783837</v>
+        <v>16.10702702702756</v>
       </c>
     </row>
   </sheetData>
